--- a/mmult.xlsx
+++ b/mmult.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Bytes</t>
   </si>
@@ -75,192 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Operational Intensity</t>
-  </si>
-  <si>
-    <t>0.000048</t>
-  </si>
-  <si>
-    <t>4.000000</t>
-  </si>
-  <si>
-    <t>30.000000</t>
-  </si>
-  <si>
-    <t>0.000049</t>
-  </si>
-  <si>
-    <t>3.918367</t>
-  </si>
-  <si>
-    <t>0.000047</t>
-  </si>
-  <si>
-    <t>4.085106</t>
-  </si>
-  <si>
-    <t>0.000050</t>
-  </si>
-  <si>
-    <t>3.840000</t>
-  </si>
-  <si>
-    <t>0.000045</t>
-  </si>
-  <si>
-    <t>4.266666</t>
-  </si>
-  <si>
-    <t>0.000046</t>
-  </si>
-  <si>
-    <t>4.173913</t>
-  </si>
-  <si>
-    <t>0.001361</t>
-  </si>
-  <si>
-    <t>3.808964</t>
-  </si>
-  <si>
-    <t>90.000000</t>
-  </si>
-  <si>
-    <t>0.001356</t>
-  </si>
-  <si>
-    <t>3.823009</t>
-  </si>
-  <si>
-    <t>0.001374</t>
-  </si>
-  <si>
-    <t>3.772926</t>
-  </si>
-  <si>
-    <t>0.001351</t>
-  </si>
-  <si>
-    <t>3.837158</t>
-  </si>
-  <si>
-    <t>0.001400</t>
-  </si>
-  <si>
-    <t>3.702857</t>
-  </si>
-  <si>
-    <t>0.001354</t>
-  </si>
-  <si>
-    <t>3.828656</t>
-  </si>
-  <si>
-    <t>0.001363</t>
-  </si>
-  <si>
-    <t>3.803375</t>
-  </si>
-  <si>
-    <t>0.204144</t>
-  </si>
-  <si>
-    <t>3.174230</t>
-  </si>
-  <si>
-    <t>450.000000</t>
-  </si>
-  <si>
-    <t>0.204243</t>
-  </si>
-  <si>
-    <t>3.172691</t>
-  </si>
-  <si>
-    <t>0.204645</t>
-  </si>
-  <si>
-    <t>3.166459</t>
-  </si>
-  <si>
-    <t>0.219388</t>
-  </si>
-  <si>
-    <t>2.953671</t>
-  </si>
-  <si>
-    <t>0.206700</t>
-  </si>
-  <si>
-    <t>3.134978</t>
-  </si>
-  <si>
-    <t>0.204023</t>
-  </si>
-  <si>
-    <t>3.176112</t>
-  </si>
-  <si>
-    <t>0.203983</t>
-  </si>
-  <si>
-    <t>3.176735</t>
-  </si>
-  <si>
-    <t>0.208062</t>
-  </si>
-  <si>
-    <t>3.114456</t>
-  </si>
-  <si>
-    <t>3.003409</t>
-  </si>
-  <si>
-    <t>0.998865</t>
-  </si>
-  <si>
-    <t>750.000000</t>
-  </si>
-  <si>
-    <t>3.000274</t>
-  </si>
-  <si>
-    <t>0.999909</t>
-  </si>
-  <si>
-    <t>2.999203</t>
-  </si>
-  <si>
-    <t>1.000266</t>
-  </si>
-  <si>
-    <t>3.016920</t>
-  </si>
-  <si>
-    <t>0.994392</t>
-  </si>
-  <si>
-    <t>3.008475</t>
-  </si>
-  <si>
-    <t>0.997183</t>
-  </si>
-  <si>
-    <t>3.057055</t>
-  </si>
-  <si>
-    <t>0.981337</t>
-  </si>
-  <si>
-    <t>3.012304</t>
-  </si>
-  <si>
-    <t>0.995915</t>
-  </si>
-  <si>
-    <t>3.082984</t>
-  </si>
-  <si>
-    <t>0.973083</t>
   </si>
 </sst>
 </file>
@@ -588,7 +402,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,9 +411,8 @@
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -649,17 +462,20 @@
       <c r="E2" s="1">
         <v>461552</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="F2" s="1">
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="G2" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
+        <f>SQRT(A2/4)*SQRT(A2/4)*SQRT(A2/4)*2</f>
+        <v>128000</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(G2/F2)/(1024*1024*1024)</f>
+        <v>2.4835268656412759</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(2/4*4)/A2</f>
+        <v>3.1250000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,17 +494,20 @@
       <c r="E3" s="1">
         <v>461552</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="1">
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="G3" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
+        <f t="shared" ref="G3:G36" si="0">SQRT(A3/4)*SQRT(A3/4)*SQRT(A3/4)*2</f>
+        <v>128000</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H36" si="1">(G3/F3)/(1024*1024*1024)</f>
+        <v>2.4328426438934949</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I36" si="2">G3/(A3*3)</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -707,17 +526,20 @@
       <c r="E4" s="1">
         <v>461552</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+      <c r="F4" s="1">
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="G4" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5363678627825799</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4/(A4*3)</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,17 +558,20 @@
       <c r="E5" s="1">
         <v>461552</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+      <c r="F5" s="1">
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="G5" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5363678627825799</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5/(A5*3)</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,17 +590,20 @@
       <c r="E6" s="1">
         <v>461552</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
+      <c r="F6" s="1">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G6" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.384185791015625</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,17 +622,20 @@
       <c r="E7" s="1">
         <v>461552</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
+      <c r="F7" s="1">
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="G7" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6490953233506942</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -823,17 +654,20 @@
       <c r="E8" s="1">
         <v>461552</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
+      <c r="F8" s="1">
+        <v>4.6E-5</v>
       </c>
       <c r="G8" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5915062945822012</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -852,17 +686,20 @@
       <c r="E9" s="1">
         <v>461552</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
+      <c r="F9" s="1">
+        <v>4.6E-5</v>
       </c>
       <c r="G9" s="1">
-        <v>192000</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5915062945822012</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,17 +718,20 @@
       <c r="E11" s="1">
         <v>12199712</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
+      <c r="F11" s="1">
+        <v>1.361E-3</v>
       </c>
       <c r="G11" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3649161042403333</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,17 +750,20 @@
       <c r="E12" s="1">
         <v>12199712</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
+      <c r="F12" s="1">
+        <v>1.356E-3</v>
       </c>
       <c r="G12" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3736362963651132</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,17 +782,20 @@
       <c r="E13" s="1">
         <v>12199713</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
+      <c r="F13" s="1">
+        <v>1.374E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3425406243603302</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -968,17 +814,20 @@
       <c r="E14" s="1">
         <v>12199712</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
+      <c r="F14" s="1">
+        <v>1.351E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3824210346936296</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14/(A14*3)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -997,17 +846,20 @@
       <c r="E15" s="1">
         <v>12199712</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
+      <c r="F15" s="1">
+        <v>1.351E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3824210346936296</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1026,17 +878,20 @@
       <c r="E16" s="1">
         <v>12199713</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
+      <c r="F16" s="1">
+        <v>1.4E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2990362984793529</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1055,17 +910,20 @@
       <c r="E17" s="1">
         <v>12199712</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
+      <c r="F17" s="1">
+        <v>1.354E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3771424061086366</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1084,17 +942,20 @@
       <c r="E18" s="1">
         <v>12199712</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
+      <c r="F18" s="1">
+        <v>1.3630000000000001E-3</v>
       </c>
       <c r="G18" s="1">
-        <v>5184000</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>3456000</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3614459412113673</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1113,17 +974,20 @@
       <c r="E20" s="1">
         <v>1514526323</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>37</v>
+      <c r="F20" s="1">
+        <v>0.20414399999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9708213429436414</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1142,17 +1006,20 @@
       <c r="E21" s="1">
         <v>1514526323</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
+      <c r="F21" s="1">
+        <v>0.20424300000000001</v>
       </c>
       <c r="G21" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9698660528580501</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,17 +1038,20 @@
       <c r="E22" s="1">
         <v>1514526323</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>42</v>
+      <c r="F22" s="1">
+        <v>0.20464499999999999</v>
       </c>
       <c r="G22" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.965996492628145</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,17 +1070,20 @@
       <c r="E23" s="1">
         <v>1514526327</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>44</v>
+      <c r="F23" s="1">
+        <v>0.219388</v>
       </c>
       <c r="G23" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8338803956182048</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,17 +1102,20 @@
       <c r="E24" s="1">
         <v>1514526323</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>46</v>
+      <c r="F24" s="1">
+        <v>0.20669999999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9464506639278507</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,17 +1134,20 @@
       <c r="E25" s="1">
         <v>1514526323</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>48</v>
+      <c r="F25" s="1">
+        <v>0.20402300000000001</v>
       </c>
       <c r="G25" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9719901787243923</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1287,17 +1166,20 @@
       <c r="E26" s="1">
         <v>1514526323</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>50</v>
+      <c r="F26" s="1">
+        <v>0.203983</v>
       </c>
       <c r="G26" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9723768756900659</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,17 +1198,20 @@
       <c r="E27" s="1">
         <v>1514526324</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>52</v>
+      <c r="F27" s="1">
+        <v>0.208062</v>
       </c>
       <c r="G27" s="1">
-        <v>648000000</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>432000000</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9337089532633864</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,17 +1230,20 @@
       <c r="E29" s="1">
         <v>7007009831</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
+      <c r="F29" s="1">
+        <v>3.003409</v>
       </c>
       <c r="G29" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62017698862557746</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,17 +1262,20 @@
       <c r="E30" s="1">
         <v>7007009825</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
+      <c r="F30" s="1">
+        <v>3.0002740000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62082501439233784</v>
+      </c>
+      <c r="I30" s="1">
+        <f>G30/(A30*3)</f>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1403,17 +1294,20 @@
       <c r="E31" s="1">
         <v>7007009827</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
+      <c r="F31" s="1">
+        <v>2.9992030000000001</v>
       </c>
       <c r="G31" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6210467078190296</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1432,17 +1326,20 @@
       <c r="E32" s="1">
         <v>7007009827</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>61</v>
+      <c r="F32" s="1">
+        <v>3.0169199999999998</v>
       </c>
       <c r="G32" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61739958276353268</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1461,17 +1358,20 @@
       <c r="E33" s="1">
         <v>7007009826</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>63</v>
+      <c r="F33" s="1">
+        <v>3.0084749999999998</v>
       </c>
       <c r="G33" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61913266662709754</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1490,17 +1390,20 @@
       <c r="E34" s="1">
         <v>7007009838</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>65</v>
+      <c r="F34" s="1">
+        <v>3.0570550000000001</v>
       </c>
       <c r="G34" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60929396076647524</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,17 +1422,20 @@
       <c r="E35" s="1">
         <v>7007009829</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
+      <c r="F35" s="1">
+        <v>3.0123039999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61834567468321822</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,17 +1454,20 @@
       <c r="E36" s="1">
         <v>7007009845</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
+      <c r="F36" s="1">
+        <v>3.0829840000000002</v>
       </c>
       <c r="G36" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6041695802608632</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
       </c>
     </row>
   </sheetData>
